--- a/15.3/15.3-timesheet.xlsx
+++ b/15.3/15.3-timesheet.xlsx
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -281,7 +281,6 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="18" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -656,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="25">
-        <v>0.006944444444444444</v>
+        <v>0.010416666666666666</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -684,7 +683,7 @@
     <row r="11">
       <c r="A11" s="26">
         <f t="shared" si="1"/>
-        <v>0.4763888889</v>
+        <v>0.4798611111</v>
       </c>
       <c r="B11" s="27">
         <v>8.0</v>
@@ -723,7 +722,7 @@
     <row r="12">
       <c r="A12" s="24">
         <f t="shared" si="1"/>
-        <v>0.4868055556</v>
+        <v>0.4902777778</v>
       </c>
       <c r="B12" s="19">
         <v>9.0</v>
@@ -760,7 +759,7 @@
     <row r="13">
       <c r="A13" s="24">
         <f t="shared" si="1"/>
-        <v>0.4902777778</v>
+        <v>0.49375</v>
       </c>
       <c r="B13" s="19">
         <v>10.0</v>
@@ -797,7 +796,7 @@
     <row r="14">
       <c r="A14" s="24">
         <f t="shared" si="1"/>
-        <v>0.49375</v>
+        <v>0.4972222222</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="15" t="s">
@@ -832,7 +831,7 @@
     <row r="15">
       <c r="A15" s="31">
         <f t="shared" si="1"/>
-        <v>0.5215277778</v>
+        <v>0.525</v>
       </c>
       <c r="B15" s="32">
         <v>11.0</v>
@@ -868,7 +867,7 @@
     <row r="16">
       <c r="A16" s="35">
         <f t="shared" si="1"/>
-        <v>0.525</v>
+        <v>0.5284722222</v>
       </c>
       <c r="B16" s="21">
         <v>12.0</v>
@@ -877,7 +876,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="37">
-        <v>0.020833333333333332</v>
+        <v>0.017361111111111112</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>16</v>
@@ -916,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="25">
-        <v>0.010416666666666666</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="3"/>
@@ -944,7 +943,7 @@
     <row r="18">
       <c r="A18" s="35">
         <f t="shared" si="1"/>
-        <v>0.55625</v>
+        <v>0.5597222222</v>
       </c>
       <c r="B18" s="21">
         <v>14.0</v>
@@ -953,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="37">
-        <v>0.017361111111111112</v>
+        <v>0.013888888888888888</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>16</v>
@@ -1027,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1082,7 +1081,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="44"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1110,7 +1109,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="44"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1135,10 +1134,10 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="45"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="44"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1163,10 +1162,10 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="44"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1331,8 +1330,8 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>

--- a/15.3/15.3-timesheet.xlsx
+++ b/15.3/15.3-timesheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Lesson Plan 15.3 - Time Tracker</t>
   </si>
@@ -225,7 +225,6 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -242,8 +241,14 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -254,6 +259,10 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -267,14 +276,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -539,10 +541,10 @@
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17">
-        <v>0.006944444444444444</v>
+      <c r="D7" s="13">
+        <v>0.010416666666666666</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3"/>
@@ -570,9 +572,9 @@
     <row r="8">
       <c r="A8" s="9">
         <f t="shared" si="1"/>
-        <v>0.4520833333</v>
+        <v>0.4555555556</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>5.0</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -605,20 +607,20 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <f t="shared" si="1"/>
-        <v>0.4555555556</v>
+        <v>0.4590277778</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>6.0</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>0.013888888888888888</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="3"/>
@@ -644,20 +646,22 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <f t="shared" si="1"/>
-        <v>0.4694444444</v>
+        <v>0.4729166667</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>7.0</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="25">
         <v>0.010416666666666666</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -681,20 +685,20 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <f t="shared" si="1"/>
-        <v>0.4798611111</v>
+        <v>0.4833333333</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="28">
         <v>8.0</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>0.010416666666666666</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3"/>
@@ -720,20 +724,20 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="24">
+      <c r="A12" s="31">
         <f t="shared" si="1"/>
-        <v>0.4902777778</v>
+        <v>0.49375</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>9.0</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="32">
         <v>0.003472222222222222</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -757,17 +761,17 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="24">
+      <c r="A13" s="31">
         <f t="shared" si="1"/>
-        <v>0.49375</v>
+        <v>0.4972222222</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>10.0</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="32">
         <v>0.003472222222222222</v>
       </c>
       <c r="E13" s="3"/>
@@ -794,18 +798,18 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="24">
+      <c r="A14" s="31">
         <f t="shared" si="1"/>
-        <v>0.4972222222</v>
+        <v>0.5006944444</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="32">
         <v>0.027777777777777776</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -829,17 +833,17 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="31">
+      <c r="A15" s="34">
         <f t="shared" si="1"/>
-        <v>0.525</v>
+        <v>0.5284722222</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="35">
         <v>11.0</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="37">
         <v>0.003472222222222222</v>
       </c>
       <c r="F15" s="3"/>
@@ -865,22 +869,20 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <f t="shared" si="1"/>
-        <v>0.5284722222</v>
+        <v>0.5319444444</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>12.0</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="37">
-        <v>0.017361111111111112</v>
+      <c r="D16" s="32">
+        <v>0.013888888888888888</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -908,16 +910,18 @@
         <f t="shared" si="1"/>
         <v>0.5458333333</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="20">
         <v>13.0</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="25">
         <v>0.013888888888888888</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -941,22 +945,20 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <f t="shared" si="1"/>
         <v>0.5597222222</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>14.0</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="37">
-        <v>0.013888888888888888</v>
+      <c r="D18" s="32">
+        <v>0.010416666666666666</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -980,20 +982,22 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <f t="shared" si="1"/>
-        <v>0.5736111111</v>
+        <v>0.5701388889</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="20">
         <v>15.0</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="25">
-        <v>0.010416666666666666</v>
+        <v>0.013888888888888888</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
